--- a/mitre_ttp_mapping/Winevtlog_Mapping.xlsx
+++ b/mitre_ttp_mapping/Winevtlog_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Desktop\SecurityLab\zeek-agent\mitre_ttp_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7217F34-ACB9-45BD-B649-06382B799B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436CF9E-A055-48AC-95F4-2B7DEBC95C57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="12" xr2:uid="{170A3E25-4E21-4B11-AE37-BADE247A7149}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{170A3E25-4E21-4B11-AE37-BADE247A7149}"/>
   </bookViews>
   <sheets>
     <sheet name="WEL-Agent-Mapping" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1210">
   <si>
     <t>Event type</t>
   </si>
@@ -3814,6 +3814,12 @@
   </si>
   <si>
     <t>T1222.002</t>
+  </si>
+  <si>
+    <t>Methods to employ Zeek detecting MITRE ATT&amp;CK techniques</t>
+  </si>
+  <si>
+    <t>Producer-consumer ratio script</t>
   </si>
 </sst>
 </file>
@@ -4058,7 +4064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4263,36 +4269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4363,6 +4339,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4706,19 +4724,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="77"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4778,19 +4796,19 @@
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="78">
+      <c r="A5" s="110">
         <v>4657</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="110" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="6">
@@ -4801,11 +4819,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="6">
         <v>12</v>
       </c>
@@ -4814,11 +4832,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="6">
         <v>13</v>
       </c>
@@ -4827,11 +4845,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="6">
         <v>14</v>
       </c>
@@ -4966,31 +4984,31 @@
     <col min="11" max="11" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="97" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1067</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="110"/>
+      <c r="N1" s="100"/>
       <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
@@ -5013,49 +5031,49 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="N2" s="108"/>
+      <c r="N2" s="98"/>
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="N3" s="108"/>
+      <c r="N3" s="98"/>
       <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="N4" s="111"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="N5" s="108"/>
+      <c r="N5" s="98"/>
       <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -5096,11 +5114,11 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -5126,7 +5144,7 @@
       <c r="M8" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="N8" s="113"/>
+      <c r="N8" s="103"/>
       <c r="O8" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5151,7 +5169,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="109"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5176,7 +5194,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="109"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -5198,7 +5216,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="109"/>
+      <c r="N11" s="99"/>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -5224,7 +5242,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="114"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5257,7 +5275,7 @@
       <c r="M13" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="103" t="s">
         <v>414</v>
       </c>
       <c r="O13" s="68" t="s">
@@ -5284,7 +5302,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="24"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="109"/>
+      <c r="N14" s="99"/>
       <c r="O14" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5306,7 +5324,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="48"/>
-      <c r="N15" s="115"/>
+      <c r="N15" s="105"/>
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5326,7 +5344,7 @@
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
       <c r="L16" s="48"/>
-      <c r="N16" s="115"/>
+      <c r="N16" s="105"/>
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5348,7 +5366,7 @@
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
       <c r="L17" s="48"/>
-      <c r="N17" s="115"/>
+      <c r="N17" s="105"/>
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5370,7 +5388,7 @@
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
       <c r="L18" s="48"/>
-      <c r="N18" s="115"/>
+      <c r="N18" s="105"/>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -5399,7 +5417,7 @@
       <c r="K19" s="16"/>
       <c r="L19" s="24"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="109"/>
+      <c r="N19" s="99"/>
     </row>
     <row r="20" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
@@ -5420,7 +5438,7 @@
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="48"/>
-      <c r="N20" s="115"/>
+      <c r="N20" s="105"/>
       <c r="O20" s="48"/>
     </row>
     <row r="21" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -5443,7 +5461,7 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="37"/>
-      <c r="N21" s="113"/>
+      <c r="N21" s="103"/>
     </row>
     <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -5473,7 +5491,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="112"/>
+      <c r="N22" s="102"/>
     </row>
     <row r="23" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -5505,7 +5523,7 @@
       <c r="M23" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="N23" s="117" t="s">
+      <c r="N23" s="107" t="s">
         <v>692</v>
       </c>
     </row>
@@ -5537,7 +5555,7 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="109"/>
+      <c r="N24" s="99"/>
     </row>
     <row r="25" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
@@ -5567,7 +5585,7 @@
       <c r="M25" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="N25" s="113"/>
+      <c r="N25" s="103"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5589,7 +5607,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="16"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="109"/>
+      <c r="N26" s="99"/>
       <c r="O26" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5614,7 +5632,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="24"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="109"/>
+      <c r="N27" s="99"/>
     </row>
     <row r="28" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -5642,7 +5660,7 @@
       <c r="K28" s="20"/>
       <c r="L28" s="16"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="109"/>
+      <c r="N28" s="99"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -5664,7 +5682,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="24"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="109"/>
+      <c r="N29" s="99"/>
       <c r="O29" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5689,7 +5707,7 @@
       <c r="K30" s="20"/>
       <c r="L30" s="24"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="109"/>
+      <c r="N30" s="99"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -5711,7 +5729,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="24"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="109"/>
+      <c r="N31" s="99"/>
     </row>
     <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
@@ -5739,7 +5757,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="16"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="109"/>
+      <c r="N32" s="99"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
@@ -5761,7 +5779,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="24"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="109"/>
+      <c r="N33" s="99"/>
       <c r="O33" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5786,7 +5804,7 @@
       <c r="K34" s="20"/>
       <c r="L34" s="24"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="109"/>
+      <c r="N34" s="99"/>
       <c r="O34" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5811,7 +5829,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="24"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="109"/>
+      <c r="N35" s="99"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -5833,7 +5851,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="24"/>
       <c r="M36" s="20"/>
-      <c r="N36" s="109"/>
+      <c r="N36" s="99"/>
       <c r="O36" s="68" t="s">
         <v>1196</v>
       </c>
@@ -5864,7 +5882,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="24"/>
       <c r="M37" s="20"/>
-      <c r="N37" s="109"/>
+      <c r="N37" s="99"/>
     </row>
     <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
@@ -5884,7 +5902,7 @@
       <c r="K38" s="16"/>
       <c r="L38" s="24"/>
       <c r="M38" s="20"/>
-      <c r="N38" s="109"/>
+      <c r="N38" s="99"/>
     </row>
     <row r="39" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
@@ -5906,7 +5924,7 @@
       <c r="K39" s="16"/>
       <c r="L39" s="24"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="109"/>
+      <c r="N39" s="99"/>
     </row>
     <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
@@ -5928,7 +5946,7 @@
       <c r="K40" s="16"/>
       <c r="L40" s="24"/>
       <c r="M40" s="20"/>
-      <c r="N40" s="109"/>
+      <c r="N40" s="99"/>
     </row>
     <row r="41" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
@@ -6001,9 +6019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E6071-E7F3-449C-8B3F-88AAA8AE8902}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6019,27 +6037,27 @@
     <col min="10" max="10" width="13.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
     <col min="14" max="14" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1068</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -6083,26 +6101,26 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:23" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -6146,7 +6164,7 @@
       <c r="M7" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -6177,8 +6195,8 @@
       <c r="L8" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="M8" s="37" t="s">
-        <v>414</v>
+      <c r="M8" s="107" t="s">
+        <v>1209</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>1196</v>
@@ -6285,7 +6303,9 @@
       <c r="L11" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="M11" s="20"/>
+      <c r="M11" s="104" t="s">
+        <v>1208</v>
+      </c>
       <c r="N11" s="24"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -6687,8 +6707,8 @@
       <c r="L23" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="M23" s="37" t="s">
-        <v>414</v>
+      <c r="M23" s="107" t="s">
+        <v>1209</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="20"/>
@@ -7209,6 +7229,7 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{7FDB0419-5D15-40D7-AC7A-9002A5AA09E2}"/>
     <hyperlink ref="M8" r:id="rId3" xr:uid="{550EA510-21C7-4971-A02F-95BC733B84A8}"/>
     <hyperlink ref="M23" r:id="rId4" xr:uid="{D7884871-720A-43B5-B289-835B94A3A8EC}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{BB9919B0-6399-4278-A606-F299AF341F12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7219,8 +7240,8 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -7241,22 +7262,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -7300,27 +7321,27 @@
       <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -7361,11 +7382,11 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -7861,7 +7882,7 @@
       </c>
       <c r="M28" s="20"/>
     </row>
-    <row r="29" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>211</v>
       </c>
@@ -7894,6 +7915,9 @@
       </c>
       <c r="M29" s="37" t="s">
         <v>217</v>
+      </c>
+      <c r="N29" s="104" t="s">
+        <v>1208</v>
       </c>
       <c r="O29" s="68" t="s">
         <v>1196</v>
@@ -8118,7 +8142,7 @@
       </c>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>481</v>
       </c>
@@ -8141,7 +8165,9 @@
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="104" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
@@ -8206,7 +8232,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>378</v>
       </c>
@@ -8223,7 +8249,9 @@
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="20"/>
+      <c r="M41" s="104" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
@@ -8581,8 +8609,12 @@
     <hyperlink ref="M14" r:id="rId9" xr:uid="{389B37DD-152F-4CEB-9D0D-DA835D829B20}"/>
     <hyperlink ref="M17" r:id="rId10" xr:uid="{BE9B4122-FC35-4CA9-B54A-85C484957BA0}"/>
     <hyperlink ref="M30" r:id="rId11" xr:uid="{AAF5F8CF-3823-42CD-B63A-D61EF0F56CD2}"/>
+    <hyperlink ref="N29" r:id="rId12" xr:uid="{9E0E678B-F87C-4CCD-BB16-B4931F5E6A13}"/>
+    <hyperlink ref="M38" r:id="rId13" xr:uid="{D000B0D3-DEAD-4832-89EB-95356E8A327B}"/>
+    <hyperlink ref="M41" r:id="rId14" xr:uid="{1BDEF3E1-C07A-4AA6-A74A-9CBDD0583593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -8590,7 +8622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56C9488-A08B-48EC-9925-D9416F63C52B}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
@@ -8613,22 +8645,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>1073</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1075</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -8670,26 +8702,26 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -8733,7 +8765,7 @@
       <c r="M7" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -9737,22 +9769,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1050</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -9796,26 +9828,26 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -9859,7 +9891,7 @@
       <c r="M7" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -10620,22 +10652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1051</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -10679,26 +10711,26 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -10742,7 +10774,7 @@
       <c r="M7" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -11511,11 +11543,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB85A52-C71F-403A-A3F6-198D0CE36EDE}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <pane ySplit="7" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11531,33 +11563,36 @@
     <col min="10" max="10" width="13.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="97"/>
+    <col min="16" max="16" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="21"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="M1" s="100"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="29" t="s">
         <v>116</v>
       </c>
@@ -11577,49 +11612,58 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="100"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="100"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="119"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="M5" s="100"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
@@ -11656,15 +11700,16 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>337</v>
       </c>
@@ -11684,11 +11729,11 @@
         <v>626</v>
       </c>
       <c r="M8" s="42"/>
-      <c r="O8" s="93" t="s">
+      <c r="P8" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>620</v>
       </c>
@@ -11708,9 +11753,9 @@
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="O9" s="92"/>
-    </row>
-    <row r="10" spans="1:15" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P9" s="82"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>338</v>
       </c>
@@ -11730,9 +11775,9 @@
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
-      <c r="O10" s="93"/>
-    </row>
-    <row r="11" spans="1:15" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P10" s="83"/>
+    </row>
+    <row r="11" spans="1:16" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>621</v>
       </c>
@@ -11752,9 +11797,9 @@
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
-      <c r="O11" s="92"/>
-    </row>
-    <row r="12" spans="1:15" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P11" s="82"/>
+    </row>
+    <row r="12" spans="1:16" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>622</v>
       </c>
@@ -11774,9 +11819,9 @@
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
-      <c r="O12" s="92"/>
-    </row>
-    <row r="13" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P12" s="82"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>339</v>
       </c>
@@ -11802,11 +11847,11 @@
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
-      <c r="O13" s="93" t="s">
+      <c r="P13" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>340</v>
       </c>
@@ -11824,9 +11869,9 @@
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
-      <c r="O14" s="93"/>
-    </row>
-    <row r="15" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P14" s="83"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>139</v>
       </c>
@@ -11850,11 +11895,11 @@
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
-      <c r="O15" s="93" t="s">
+      <c r="P15" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>117</v>
       </c>
@@ -11880,9 +11925,9 @@
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="O16" s="93"/>
-    </row>
-    <row r="17" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P16" s="83"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>150</v>
       </c>
@@ -11914,9 +11959,9 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="O17" s="93"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P17" s="83"/>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>157</v>
       </c>
@@ -11946,11 +11991,11 @@
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
-      <c r="O18" s="93" t="s">
+      <c r="P18" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>142</v>
       </c>
@@ -11976,11 +12021,11 @@
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
-      <c r="O19" s="93" t="s">
+      <c r="P19" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>341</v>
       </c>
@@ -12000,9 +12045,9 @@
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
-      <c r="O20" s="92"/>
-    </row>
-    <row r="21" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P20" s="82"/>
+    </row>
+    <row r="21" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>1019</v>
       </c>
@@ -12022,9 +12067,9 @@
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
-      <c r="O21" s="92"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P21" s="82"/>
+    </row>
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>1020</v>
       </c>
@@ -12056,9 +12101,9 @@
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
-      <c r="O22" s="93"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P22" s="83"/>
+    </row>
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>144</v>
       </c>
@@ -12084,11 +12129,11 @@
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
-      <c r="O23" s="93" t="s">
+      <c r="P23" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>342</v>
       </c>
@@ -12108,11 +12153,11 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
-      <c r="O24" s="93" t="s">
+      <c r="P24" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>1021</v>
       </c>
@@ -12132,9 +12177,9 @@
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
-      <c r="O25" s="92"/>
-    </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P25" s="82"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>343</v>
       </c>
@@ -12154,9 +12199,9 @@
       <c r="K26" s="42"/>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
-      <c r="O26" s="93"/>
-    </row>
-    <row r="27" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P26" s="83"/>
+    </row>
+    <row r="27" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>1022</v>
       </c>
@@ -12176,9 +12221,9 @@
       <c r="K27" s="49"/>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P27" s="82"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>344</v>
       </c>
@@ -12198,9 +12243,9 @@
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
-      <c r="O28" s="93"/>
-    </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P28" s="83"/>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>115</v>
       </c>
@@ -12222,9 +12267,9 @@
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
-      <c r="O29" s="93"/>
-    </row>
-    <row r="30" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P29" s="83"/>
+    </row>
+    <row r="30" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>345</v>
       </c>
@@ -12244,11 +12289,11 @@
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
-      <c r="O30" s="93" t="s">
+      <c r="P30" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>1026</v>
       </c>
@@ -12268,9 +12313,9 @@
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
-      <c r="O31" s="92"/>
-    </row>
-    <row r="32" spans="1:15" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P31" s="82"/>
+    </row>
+    <row r="32" spans="1:16" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>346</v>
       </c>
@@ -12290,9 +12335,9 @@
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
-      <c r="O32" s="93"/>
-    </row>
-    <row r="33" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P32" s="83"/>
+    </row>
+    <row r="33" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
         <v>1027</v>
       </c>
@@ -12312,9 +12357,9 @@
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
-      <c r="O33" s="92"/>
-    </row>
-    <row r="34" spans="1:15" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P33" s="82"/>
+    </row>
+    <row r="34" spans="1:16" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
         <v>1028</v>
       </c>
@@ -12334,9 +12379,9 @@
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
       <c r="M34" s="49"/>
-      <c r="O34" s="92"/>
-    </row>
-    <row r="35" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P34" s="82"/>
+    </row>
+    <row r="35" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>125</v>
       </c>
@@ -12365,13 +12410,14 @@
       <c r="J35" s="10"/>
       <c r="K35"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="37"/>
+      <c r="M35" s="107"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="68" t="s">
+      <c r="O35" s="99"/>
+      <c r="P35" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>348</v>
       </c>
@@ -12388,10 +12434,11 @@
       <c r="J36" s="10"/>
       <c r="K36"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="37"/>
+      <c r="M36" s="107"/>
       <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O36" s="99"/>
+    </row>
+    <row r="37" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>131</v>
       </c>
@@ -12416,10 +12463,11 @@
       <c r="J37" s="10"/>
       <c r="K37"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="37"/>
+      <c r="M37" s="107"/>
       <c r="N37" s="20"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O37" s="99"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>350</v>
       </c>
@@ -12438,13 +12486,14 @@
       <c r="J38" s="10"/>
       <c r="K38"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="37"/>
+      <c r="M38" s="107"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="68" t="s">
+      <c r="O38" s="99"/>
+      <c r="P38" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>349</v>
       </c>
@@ -12463,13 +12512,14 @@
       <c r="J39" s="10"/>
       <c r="K39"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="37"/>
+      <c r="M39" s="107"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="68" t="s">
+      <c r="O39" s="99"/>
+      <c r="P39" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>1052</v>
       </c>
@@ -12488,9 +12538,10 @@
       <c r="J40" s="45"/>
       <c r="L40" s="45"/>
       <c r="M40" s="51"/>
-      <c r="O40" s="48"/>
-    </row>
-    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O40" s="105"/>
+      <c r="P40" s="48"/>
+    </row>
+    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>169</v>
       </c>
@@ -12507,10 +12558,11 @@
       <c r="J41" s="10"/>
       <c r="K41"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="37"/>
+      <c r="M41" s="107"/>
       <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O41" s="99"/>
+    </row>
+    <row r="42" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="45" t="s">
         <v>1054</v>
       </c>
@@ -12529,9 +12581,10 @@
       <c r="J42" s="45"/>
       <c r="L42" s="45"/>
       <c r="M42" s="51"/>
-      <c r="O42" s="48"/>
-    </row>
-    <row r="43" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O42" s="105"/>
+      <c r="P42" s="48"/>
+    </row>
+    <row r="43" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="45" t="s">
         <v>1055</v>
       </c>
@@ -12550,9 +12603,10 @@
       <c r="J43" s="45"/>
       <c r="L43" s="45"/>
       <c r="M43" s="51"/>
-      <c r="O43" s="48"/>
-    </row>
-    <row r="44" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O43" s="105"/>
+      <c r="P43" s="48"/>
+    </row>
+    <row r="44" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>171</v>
       </c>
@@ -12571,13 +12625,14 @@
       <c r="J44" s="10"/>
       <c r="K44"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="37"/>
+      <c r="M44" s="107"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="68" t="s">
+      <c r="O44" s="99"/>
+      <c r="P44" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>1056</v>
       </c>
@@ -12596,10 +12651,11 @@
       <c r="J45" s="44"/>
       <c r="K45"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="37"/>
+      <c r="M45" s="107"/>
       <c r="N45" s="20"/>
-    </row>
-    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O45" s="99"/>
+    </row>
+    <row r="46" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>351</v>
       </c>
@@ -12616,10 +12672,11 @@
       <c r="J46" s="10"/>
       <c r="K46"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="37"/>
+      <c r="M46" s="107"/>
       <c r="N46" s="20"/>
-    </row>
-    <row r="47" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O46" s="99"/>
+    </row>
+    <row r="47" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>129</v>
       </c>
@@ -12644,13 +12701,14 @@
       <c r="J47" s="10"/>
       <c r="K47"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="37"/>
+      <c r="M47" s="107"/>
       <c r="N47" s="20"/>
-      <c r="O47" s="68" t="s">
+      <c r="O47" s="99"/>
+      <c r="P47" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>140</v>
       </c>
@@ -12677,13 +12735,14 @@
       <c r="J48" s="10"/>
       <c r="K48"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="37"/>
+      <c r="M48" s="107"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="68" t="s">
+      <c r="O48" s="99"/>
+      <c r="P48" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>154</v>
       </c>
@@ -12704,13 +12763,14 @@
       <c r="J49" s="10"/>
       <c r="K49"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="37"/>
+      <c r="M49" s="107"/>
       <c r="N49" s="20"/>
-      <c r="O49" s="68" t="s">
+      <c r="O49" s="99"/>
+      <c r="P49" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>826</v>
       </c>
@@ -12729,9 +12789,10 @@
       <c r="J50" s="45"/>
       <c r="L50" s="45"/>
       <c r="M50" s="51"/>
-      <c r="O50" s="48"/>
-    </row>
-    <row r="51" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O50" s="105"/>
+      <c r="P50" s="48"/>
+    </row>
+    <row r="51" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>827</v>
       </c>
@@ -12750,9 +12811,10 @@
       <c r="J51" s="45"/>
       <c r="L51" s="45"/>
       <c r="M51" s="51"/>
-      <c r="O51" s="48"/>
-    </row>
-    <row r="52" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O51" s="105"/>
+      <c r="P51" s="48"/>
+    </row>
+    <row r="52" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>828</v>
       </c>
@@ -12771,9 +12833,10 @@
       <c r="J52" s="45"/>
       <c r="L52" s="45"/>
       <c r="M52" s="51"/>
-      <c r="O52" s="48"/>
-    </row>
-    <row r="53" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O52" s="105"/>
+      <c r="P52" s="48"/>
+    </row>
+    <row r="53" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>135</v>
       </c>
@@ -12798,13 +12861,14 @@
       <c r="J53" s="10"/>
       <c r="K53"/>
       <c r="L53" s="16"/>
-      <c r="M53" s="37"/>
+      <c r="M53" s="107"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="68" t="s">
+      <c r="O53" s="99"/>
+      <c r="P53" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>161</v>
       </c>
@@ -12831,13 +12895,14 @@
       <c r="J54" s="10"/>
       <c r="K54"/>
       <c r="L54" s="16"/>
-      <c r="M54" s="37"/>
+      <c r="M54" s="107"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="68" t="s">
+      <c r="O54" s="99"/>
+      <c r="P54" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>163</v>
       </c>
@@ -12862,10 +12927,11 @@
       <c r="J55" s="10"/>
       <c r="K55"/>
       <c r="L55" s="16"/>
-      <c r="M55" s="37"/>
+      <c r="M55" s="107"/>
       <c r="N55" s="20"/>
-    </row>
-    <row r="56" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O55" s="99"/>
+    </row>
+    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>165</v>
       </c>
@@ -12890,13 +12956,14 @@
       <c r="J56" s="10"/>
       <c r="K56"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="37"/>
+      <c r="M56" s="107"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="68" t="s">
+      <c r="O56" s="99"/>
+      <c r="P56" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>167</v>
       </c>
@@ -12925,13 +12992,14 @@
       <c r="J57" s="10"/>
       <c r="K57"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="37"/>
+      <c r="M57" s="107"/>
       <c r="N57" s="20"/>
-      <c r="O57" s="68" t="s">
+      <c r="O57" s="99"/>
+      <c r="P57" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>352</v>
       </c>
@@ -12958,13 +13026,14 @@
       <c r="J58" s="10"/>
       <c r="K58"/>
       <c r="L58" s="16"/>
-      <c r="M58" s="37"/>
+      <c r="M58" s="107"/>
       <c r="N58" s="20"/>
-      <c r="O58" s="68" t="s">
+      <c r="O58" s="99"/>
+      <c r="P58" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>353</v>
       </c>
@@ -12983,13 +13052,14 @@
       <c r="J59" s="10"/>
       <c r="K59"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="37"/>
+      <c r="M59" s="107"/>
       <c r="N59" s="20"/>
-      <c r="O59" s="68" t="s">
+      <c r="O59" s="99"/>
+      <c r="P59" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>354</v>
       </c>
@@ -13016,10 +13086,11 @@
       <c r="J60" s="10"/>
       <c r="K60"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="37"/>
+      <c r="M60" s="107"/>
       <c r="N60" s="20"/>
-    </row>
-    <row r="61" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O60" s="99"/>
+    </row>
+    <row r="61" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>133</v>
       </c>
@@ -13040,13 +13111,14 @@
       <c r="L61" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M61" s="20"/>
+      <c r="M61" s="120"/>
       <c r="N61" s="20"/>
-      <c r="O61" s="68" t="s">
+      <c r="O61" s="99"/>
+      <c r="P61" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>355</v>
       </c>
@@ -13063,10 +13135,11 @@
       <c r="J62" s="10"/>
       <c r="K62"/>
       <c r="L62" s="16"/>
-      <c r="M62" s="37"/>
+      <c r="M62" s="107"/>
       <c r="N62" s="20"/>
-    </row>
-    <row r="63" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O62" s="99"/>
+    </row>
+    <row r="63" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>361</v>
       </c>
@@ -13093,13 +13166,14 @@
       <c r="J63" s="10"/>
       <c r="K63"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="37"/>
+      <c r="M63" s="107"/>
       <c r="N63" s="20"/>
-      <c r="O63" s="68" t="s">
+      <c r="O63" s="99"/>
+      <c r="P63" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>362</v>
       </c>
@@ -13118,10 +13192,11 @@
       <c r="J64" s="10"/>
       <c r="K64"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="37"/>
+      <c r="M64" s="107"/>
       <c r="N64" s="20"/>
-    </row>
-    <row r="65" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O64" s="99"/>
+    </row>
+    <row r="65" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>832</v>
       </c>
@@ -13140,9 +13215,10 @@
       <c r="J65" s="45"/>
       <c r="L65" s="45"/>
       <c r="M65" s="51"/>
-      <c r="O65" s="48"/>
-    </row>
-    <row r="66" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O65" s="105"/>
+      <c r="P65" s="48"/>
+    </row>
+    <row r="66" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>357</v>
       </c>
@@ -13161,10 +13237,11 @@
       <c r="J66" s="10"/>
       <c r="K66"/>
       <c r="L66" s="16"/>
-      <c r="M66" s="37"/>
+      <c r="M66" s="107"/>
       <c r="N66" s="20"/>
-    </row>
-    <row r="67" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O66" s="99"/>
+    </row>
+    <row r="67" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>833</v>
       </c>
@@ -13183,9 +13260,10 @@
       <c r="J67" s="45"/>
       <c r="L67" s="45"/>
       <c r="M67" s="51"/>
-      <c r="O67" s="48"/>
-    </row>
-    <row r="68" spans="1:15" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O67" s="105"/>
+      <c r="P67" s="48"/>
+    </row>
+    <row r="68" spans="1:16" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>834</v>
       </c>
@@ -13203,10 +13281,11 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="37"/>
-      <c r="O68" s="24"/>
-    </row>
-    <row r="69" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M68" s="107"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="24"/>
+    </row>
+    <row r="69" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>360</v>
       </c>
@@ -13225,10 +13304,11 @@
       <c r="J69" s="10"/>
       <c r="K69"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="37"/>
+      <c r="M69" s="107"/>
       <c r="N69" s="20"/>
-    </row>
-    <row r="70" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O69" s="99"/>
+    </row>
+    <row r="70" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>359</v>
       </c>
@@ -13247,13 +13327,14 @@
       <c r="J70" s="10"/>
       <c r="K70"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="37"/>
+      <c r="M70" s="107"/>
       <c r="N70" s="20"/>
-      <c r="O70" s="68" t="s">
+      <c r="O70" s="99"/>
+      <c r="P70" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>356</v>
       </c>
@@ -13272,10 +13353,11 @@
       <c r="J71" s="10"/>
       <c r="K71"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="37"/>
+      <c r="M71" s="107"/>
       <c r="N71" s="20"/>
-    </row>
-    <row r="72" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O71" s="99"/>
+    </row>
+    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>358</v>
       </c>
@@ -13294,13 +13376,14 @@
       <c r="J72" s="10"/>
       <c r="K72"/>
       <c r="L72" s="16"/>
-      <c r="M72" s="37"/>
+      <c r="M72" s="107"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="68" t="s">
+      <c r="O72" s="99"/>
+      <c r="P72" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>363</v>
       </c>
@@ -13319,13 +13402,14 @@
       <c r="J73" s="10"/>
       <c r="K73"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="37"/>
+      <c r="M73" s="107"/>
       <c r="N73" s="20"/>
-      <c r="O73" s="68" t="s">
+      <c r="O73" s="99"/>
+      <c r="P73" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="45" t="s">
         <v>1057</v>
       </c>
@@ -13342,9 +13426,10 @@
       <c r="J74" s="45"/>
       <c r="L74" s="45"/>
       <c r="M74" s="51"/>
-      <c r="O74" s="48"/>
-    </row>
-    <row r="75" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O74" s="105"/>
+      <c r="P74" s="48"/>
+    </row>
+    <row r="75" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>364</v>
       </c>
@@ -13361,10 +13446,11 @@
       <c r="J75" s="10"/>
       <c r="K75"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="37"/>
+      <c r="M75" s="107"/>
       <c r="N75" s="20"/>
-    </row>
-    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O75" s="99"/>
+    </row>
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>365</v>
       </c>
@@ -13383,10 +13469,11 @@
       <c r="J76" s="10"/>
       <c r="K76"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="37"/>
+      <c r="M76" s="107"/>
       <c r="N76" s="20"/>
-    </row>
-    <row r="77" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O76" s="99"/>
+    </row>
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>366</v>
       </c>
@@ -13405,10 +13492,11 @@
       <c r="J77" s="10"/>
       <c r="K77"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="37"/>
+      <c r="M77" s="107"/>
       <c r="N77" s="20"/>
-    </row>
-    <row r="78" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O77" s="99"/>
+    </row>
+    <row r="78" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
         <v>881</v>
       </c>
@@ -13427,9 +13515,10 @@
       <c r="J78" s="45"/>
       <c r="L78" s="45"/>
       <c r="M78" s="51"/>
-      <c r="O78" s="48"/>
-    </row>
-    <row r="79" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O78" s="105"/>
+      <c r="P78" s="48"/>
+    </row>
+    <row r="79" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
         <v>882</v>
       </c>
@@ -13448,9 +13537,10 @@
       <c r="J79" s="45"/>
       <c r="L79" s="45"/>
       <c r="M79" s="51"/>
-      <c r="O79" s="48"/>
-    </row>
-    <row r="80" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O79" s="105"/>
+      <c r="P79" s="48"/>
+    </row>
+    <row r="80" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>137</v>
       </c>
@@ -13475,13 +13565,14 @@
       <c r="J80" s="10"/>
       <c r="K80"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="37"/>
+      <c r="M80" s="107"/>
       <c r="N80" s="20"/>
-      <c r="O80" s="68" t="s">
+      <c r="O80" s="99"/>
+      <c r="P80" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>367</v>
       </c>
@@ -13500,10 +13591,11 @@
       <c r="J81" s="10"/>
       <c r="K81"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="37"/>
+      <c r="M81" s="107"/>
       <c r="N81" s="20"/>
-    </row>
-    <row r="82" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O81" s="99"/>
+    </row>
+    <row r="82" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>370</v>
       </c>
@@ -13522,13 +13614,14 @@
       <c r="J82" s="10"/>
       <c r="K82"/>
       <c r="L82" s="16"/>
-      <c r="M82" s="37"/>
+      <c r="M82" s="107"/>
       <c r="N82" s="20"/>
-      <c r="O82" s="68" t="s">
+      <c r="O82" s="99"/>
+      <c r="P82" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>368</v>
       </c>
@@ -13547,10 +13640,11 @@
       <c r="J83" s="10"/>
       <c r="K83"/>
       <c r="L83" s="16"/>
-      <c r="M83" s="37"/>
+      <c r="M83" s="107"/>
       <c r="N83" s="20"/>
-    </row>
-    <row r="84" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O83" s="99"/>
+    </row>
+    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>371</v>
       </c>
@@ -13569,13 +13663,14 @@
       <c r="J84" s="10"/>
       <c r="K84"/>
       <c r="L84" s="16"/>
-      <c r="M84" s="37"/>
+      <c r="M84" s="107"/>
       <c r="N84" s="20"/>
-      <c r="O84" s="68" t="s">
+      <c r="O84" s="99"/>
+      <c r="P84" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>369</v>
       </c>
@@ -13594,10 +13689,11 @@
       <c r="J85" s="10"/>
       <c r="K85"/>
       <c r="L85" s="16"/>
-      <c r="M85" s="37"/>
+      <c r="M85" s="107"/>
       <c r="N85" s="20"/>
-    </row>
-    <row r="86" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O85" s="99"/>
+    </row>
+    <row r="86" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="44" t="s">
         <v>1059</v>
       </c>
@@ -13616,10 +13712,11 @@
       <c r="J86" s="44"/>
       <c r="K86"/>
       <c r="L86" s="16"/>
-      <c r="M86" s="37"/>
+      <c r="M86" s="107"/>
       <c r="N86" s="20"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O86" s="99"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>120</v>
       </c>
@@ -13636,10 +13733,11 @@
       <c r="J87" s="10"/>
       <c r="K87"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="37"/>
+      <c r="M87" s="107"/>
       <c r="N87" s="20"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O87" s="99"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>146</v>
       </c>
@@ -13664,10 +13762,11 @@
       <c r="J88" s="10"/>
       <c r="K88"/>
       <c r="L88" s="16"/>
-      <c r="M88" s="37"/>
+      <c r="M88" s="107"/>
       <c r="N88" s="20"/>
-    </row>
-    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O88" s="99"/>
+    </row>
+    <row r="89" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>372</v>
       </c>
@@ -13690,10 +13789,11 @@
       <c r="J89" s="10"/>
       <c r="K89"/>
       <c r="L89" s="16"/>
-      <c r="M89" s="37"/>
+      <c r="M89" s="107"/>
       <c r="N89" s="20"/>
-    </row>
-    <row r="90" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O89" s="99"/>
+    </row>
+    <row r="90" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>121</v>
       </c>
@@ -13718,10 +13818,11 @@
       <c r="J90" s="10"/>
       <c r="K90"/>
       <c r="L90" s="16"/>
-      <c r="M90" s="37"/>
+      <c r="M90" s="107"/>
       <c r="N90" s="20"/>
-    </row>
-    <row r="91" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O90" s="99"/>
+    </row>
+    <row r="91" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="45" t="s">
         <v>918</v>
       </c>
@@ -13740,9 +13841,10 @@
       <c r="J91" s="45"/>
       <c r="L91" s="45"/>
       <c r="M91" s="51"/>
-      <c r="O91" s="48"/>
-    </row>
-    <row r="92" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O91" s="105"/>
+      <c r="P91" s="48"/>
+    </row>
+    <row r="92" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
         <v>919</v>
       </c>
@@ -13761,9 +13863,10 @@
       <c r="J92" s="45"/>
       <c r="L92" s="45"/>
       <c r="M92" s="51"/>
-      <c r="O92" s="48"/>
-    </row>
-    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O92" s="105"/>
+      <c r="P92" s="48"/>
+    </row>
+    <row r="93" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>277</v>
       </c>
@@ -13788,10 +13891,11 @@
       <c r="J93" s="10"/>
       <c r="K93"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="37"/>
+      <c r="M93" s="107"/>
       <c r="N93" s="20"/>
-    </row>
-    <row r="94" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O93" s="99"/>
+    </row>
+    <row r="94" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="45" t="s">
         <v>1045</v>
       </c>
@@ -13810,9 +13914,10 @@
       <c r="J94" s="45"/>
       <c r="L94" s="45"/>
       <c r="M94" s="51"/>
-      <c r="O94" s="48"/>
-    </row>
-    <row r="95" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O94" s="105"/>
+      <c r="P94" s="48"/>
+    </row>
+    <row r="95" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>278</v>
       </c>
@@ -13831,13 +13936,14 @@
       <c r="J95" s="10"/>
       <c r="K95"/>
       <c r="L95" s="24"/>
-      <c r="M95" s="20"/>
+      <c r="M95" s="120"/>
       <c r="N95" s="20"/>
-      <c r="O95" s="68" t="s">
+      <c r="O95" s="99"/>
+      <c r="P95" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>1046</v>
       </c>
@@ -13855,9 +13961,11 @@
       <c r="I96" s="45"/>
       <c r="J96" s="45"/>
       <c r="L96" s="48"/>
-      <c r="O96" s="48"/>
-    </row>
-    <row r="97" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M96" s="121"/>
+      <c r="O96" s="105"/>
+      <c r="P96" s="48"/>
+    </row>
+    <row r="97" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>1047</v>
       </c>
@@ -13875,9 +13983,11 @@
       <c r="I97" s="45"/>
       <c r="J97" s="45"/>
       <c r="L97" s="48"/>
-      <c r="O97" s="48"/>
-    </row>
-    <row r="98" spans="1:15" s="58" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M97" s="121"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="48"/>
+    </row>
+    <row r="98" spans="1:16" s="58" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="66" t="s">
         <v>373</v>
       </c>
@@ -13896,11 +14006,13 @@
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
       <c r="L98" s="24"/>
-      <c r="O98" s="24" t="s">
+      <c r="M98" s="120"/>
+      <c r="O98" s="99"/>
+      <c r="P98" s="24" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="45" t="s">
         <v>1048</v>
       </c>
@@ -13919,9 +14031,11 @@
       <c r="J99" s="45"/>
       <c r="K99" s="45"/>
       <c r="L99" s="48"/>
-      <c r="O99" s="48"/>
-    </row>
-    <row r="100" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M99" s="121"/>
+      <c r="O99" s="105"/>
+      <c r="P99" s="48"/>
+    </row>
+    <row r="100" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>1049</v>
       </c>
@@ -13940,10 +14054,11 @@
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
       <c r="L100" s="24"/>
-      <c r="M100" s="20"/>
+      <c r="M100" s="120"/>
       <c r="N100" s="20"/>
-    </row>
-    <row r="101" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O100" s="99"/>
+    </row>
+    <row r="101" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>374</v>
       </c>
@@ -13960,10 +14075,11 @@
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
       <c r="L101" s="24"/>
-      <c r="M101" s="20"/>
+      <c r="M101" s="120"/>
       <c r="N101" s="20"/>
-    </row>
-    <row r="102" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O101" s="99"/>
+    </row>
+    <row r="102" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>375</v>
       </c>
@@ -13982,7 +14098,7 @@
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>376</v>
       </c>
@@ -14000,11 +14116,11 @@
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
-      <c r="O103" s="68" t="s">
+      <c r="P103" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>377</v>
       </c>
@@ -14029,11 +14145,11 @@
       <c r="H104" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="O104" s="68" t="s">
+      <c r="P104" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
         <v>484</v>
       </c>
@@ -14044,7 +14160,7 @@
       <c r="K105" s="43"/>
       <c r="L105" s="43"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>378</v>
       </c>
@@ -14057,14 +14173,17 @@
       <c r="L106" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="M106" s="38" t="s">
+      <c r="M106" s="92" t="s">
         <v>380</v>
       </c>
       <c r="N106" s="38" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O106" s="104" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>228</v>
       </c>
@@ -14079,7 +14198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>231</v>
       </c>
@@ -14089,11 +14208,11 @@
       <c r="C108" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="O108" s="68" t="s">
+      <c r="P108" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>232</v>
       </c>
@@ -14104,7 +14223,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>234</v>
       </c>
@@ -14115,7 +14234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="45" t="s">
         <v>236</v>
       </c>
@@ -14127,7 +14246,9 @@
       </c>
       <c r="K111" s="48"/>
       <c r="L111" s="48"/>
-      <c r="O111" s="48"/>
+      <c r="M111" s="121"/>
+      <c r="O111" s="105"/>
+      <c r="P111" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14144,9 +14265,10 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{10565333-5052-465F-BD77-07F4DEE868C8}"/>
     <hyperlink ref="M106" r:id="rId3" xr:uid="{1043A0C2-60DF-40AC-BEA2-14634360B10A}"/>
     <hyperlink ref="N106" r:id="rId4" xr:uid="{4B2C169A-0806-42F5-B408-D89CEDAEB129}"/>
+    <hyperlink ref="O106" r:id="rId5" xr:uid="{1FA78CA3-CE6A-4567-8667-5C0FF7C70431}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -14177,22 +14299,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>1008</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1010</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -14234,26 +14356,26 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -14297,7 +14419,7 @@
       <c r="M7" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -14319,7 +14441,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="93"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
@@ -14341,7 +14463,7 @@
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="N9" s="92"/>
+      <c r="N9" s="82"/>
     </row>
     <row r="10" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
@@ -14371,7 +14493,7 @@
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
-      <c r="N10" s="93" t="s">
+      <c r="N10" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14395,7 +14517,7 @@
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
-      <c r="N11" s="92"/>
+      <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
@@ -14417,7 +14539,7 @@
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
-      <c r="N12" s="92"/>
+      <c r="N12" s="82"/>
     </row>
     <row r="13" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
@@ -14443,7 +14565,7 @@
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
-      <c r="N13" s="93"/>
+      <c r="N13" s="83"/>
     </row>
     <row r="14" spans="1:14" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
@@ -14465,7 +14587,7 @@
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
-      <c r="N14" s="93" t="s">
+      <c r="N14" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14489,7 +14611,7 @@
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
-      <c r="N15" s="93"/>
+      <c r="N15" s="83"/>
     </row>
     <row r="16" spans="1:14" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
@@ -14511,7 +14633,7 @@
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="93"/>
+      <c r="N16" s="83"/>
     </row>
     <row r="17" spans="1:14" s="34" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
@@ -14533,7 +14655,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="93" t="s">
+      <c r="N17" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14563,7 +14685,7 @@
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
-      <c r="N18" s="93"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -14583,7 +14705,7 @@
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
-      <c r="N19" s="93"/>
+      <c r="N19" s="83"/>
     </row>
     <row r="20" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
@@ -14605,7 +14727,7 @@
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
-      <c r="N20" s="93" t="s">
+      <c r="N20" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14629,7 +14751,7 @@
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
-      <c r="N21" s="93"/>
+      <c r="N21" s="83"/>
     </row>
     <row r="22" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -14651,7 +14773,7 @@
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
-      <c r="N22" s="93"/>
+      <c r="N22" s="83"/>
     </row>
     <row r="23" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -14673,7 +14795,7 @@
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
-      <c r="N23" s="93" t="s">
+      <c r="N23" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14697,7 +14819,7 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
-      <c r="N24" s="93" t="s">
+      <c r="N24" s="83" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14721,7 +14843,7 @@
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
-      <c r="N25" s="92"/>
+      <c r="N25" s="82"/>
     </row>
     <row r="26" spans="1:14" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
@@ -14743,7 +14865,7 @@
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
-      <c r="N26" s="92"/>
+      <c r="N26" s="82"/>
     </row>
     <row r="27" spans="1:14" s="34" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -14765,7 +14887,7 @@
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
-      <c r="N27" s="93"/>
+      <c r="N27" s="83"/>
     </row>
     <row r="28" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -16357,11 +16479,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88E174E-0697-4D35-BA26-FB3D5D2B64F8}">
-  <dimension ref="A1:O162"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N141" sqref="N141"/>
+      <selection pane="bottomLeft" activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -16377,35 +16499,37 @@
     <col min="10" max="10" width="13.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="97" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1062</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="O1" s="100"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="29" t="s">
         <v>286</v>
       </c>
@@ -16425,49 +16549,54 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="98"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="98"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="101"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="O5" s="98"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="106"/>
+      <c r="P6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
@@ -16504,15 +16633,16 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>773</v>
       </c>
@@ -16531,8 +16661,9 @@
       <c r="L8" s="16"/>
       <c r="M8" s="20"/>
       <c r="N8" s="58"/>
-    </row>
-    <row r="9" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O8" s="99"/>
+    </row>
+    <row r="9" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>775</v>
       </c>
@@ -16551,9 +16682,10 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
-      <c r="O9" s="48"/>
-    </row>
-    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O9" s="105"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>780</v>
       </c>
@@ -16582,11 +16714,12 @@
       <c r="L10" s="16"/>
       <c r="M10" s="20"/>
       <c r="N10" s="58"/>
-      <c r="O10" s="68" t="s">
+      <c r="O10" s="99"/>
+      <c r="P10" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>781</v>
       </c>
@@ -16605,9 +16738,10 @@
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
       <c r="L11" s="45"/>
-      <c r="O11" s="48"/>
-    </row>
-    <row r="12" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O11" s="105"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>782</v>
       </c>
@@ -16626,9 +16760,10 @@
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
-      <c r="O12" s="48"/>
-    </row>
-    <row r="13" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O12" s="105"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>783</v>
       </c>
@@ -16653,8 +16788,9 @@
       <c r="L13" s="16"/>
       <c r="M13" s="20"/>
       <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O13" s="99"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>785</v>
       </c>
@@ -16675,11 +16811,12 @@
       <c r="L14" s="16"/>
       <c r="M14" s="20"/>
       <c r="N14" s="58"/>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="99"/>
+      <c r="P14" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>791</v>
       </c>
@@ -16700,8 +16837,9 @@
       <c r="L15" s="16"/>
       <c r="M15" s="20"/>
       <c r="N15" s="58"/>
-    </row>
-    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O15" s="99"/>
+    </row>
+    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>792</v>
       </c>
@@ -16722,8 +16860,9 @@
       <c r="L16" s="16"/>
       <c r="M16" s="20"/>
       <c r="N16" s="58"/>
-    </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O16" s="99"/>
+    </row>
+    <row r="17" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>793</v>
       </c>
@@ -16744,11 +16883,12 @@
       <c r="L17" s="16"/>
       <c r="M17" s="20"/>
       <c r="N17" s="58"/>
-      <c r="O17" s="68" t="s">
+      <c r="O17" s="99"/>
+      <c r="P17" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>794</v>
       </c>
@@ -16769,8 +16909,9 @@
       <c r="L18" s="16"/>
       <c r="M18" s="20"/>
       <c r="N18" s="58"/>
-    </row>
-    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O18" s="99"/>
+    </row>
+    <row r="19" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>339</v>
       </c>
@@ -16797,11 +16938,12 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
       <c r="N19" s="58"/>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="99"/>
+      <c r="P19" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>795</v>
       </c>
@@ -16818,9 +16960,10 @@
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
       <c r="L20" s="45"/>
-      <c r="O20" s="48"/>
-    </row>
-    <row r="21" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O20" s="105"/>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>797</v>
       </c>
@@ -16845,11 +16988,12 @@
       <c r="L21" s="16"/>
       <c r="M21" s="20"/>
       <c r="N21" s="58"/>
-      <c r="O21" s="68" t="s">
+      <c r="O21" s="99"/>
+      <c r="P21" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>799</v>
       </c>
@@ -16868,8 +17012,9 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
       <c r="N22" s="58"/>
-    </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O22" s="99"/>
+    </row>
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>801</v>
       </c>
@@ -16888,11 +17033,12 @@
       <c r="L23" s="16"/>
       <c r="M23" s="20"/>
       <c r="N23" s="58"/>
-      <c r="O23" s="68" t="s">
+      <c r="O23" s="99"/>
+      <c r="P23" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>802</v>
       </c>
@@ -16911,8 +17057,9 @@
       <c r="L24" s="16"/>
       <c r="M24" s="20"/>
       <c r="N24" s="58"/>
-    </row>
-    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O24" s="99"/>
+    </row>
+    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>804</v>
       </c>
@@ -16933,8 +17080,9 @@
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
       <c r="N25" s="58"/>
-    </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O25" s="99"/>
+    </row>
+    <row r="26" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>806</v>
       </c>
@@ -16955,8 +17103,9 @@
       <c r="L26" s="16"/>
       <c r="M26" s="20"/>
       <c r="N26" s="58"/>
-    </row>
-    <row r="27" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O26" s="99"/>
+    </row>
+    <row r="27" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>808</v>
       </c>
@@ -16975,8 +17124,9 @@
       <c r="L27" s="16"/>
       <c r="M27" s="20"/>
       <c r="N27" s="58"/>
-    </row>
-    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O27" s="99"/>
+    </row>
+    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>810</v>
       </c>
@@ -16997,8 +17147,9 @@
       <c r="L28" s="16"/>
       <c r="M28" s="20"/>
       <c r="N28" s="58"/>
-    </row>
-    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O28" s="99"/>
+    </row>
+    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>812</v>
       </c>
@@ -17023,8 +17174,9 @@
       <c r="L29" s="16"/>
       <c r="M29" s="20"/>
       <c r="N29" s="58"/>
-    </row>
-    <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O29" s="99"/>
+    </row>
+    <row r="30" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>814</v>
       </c>
@@ -17043,8 +17195,9 @@
       <c r="L30" s="16"/>
       <c r="M30" s="20"/>
       <c r="N30" s="58"/>
-    </row>
-    <row r="31" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O30" s="99"/>
+    </row>
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>1206</v>
       </c>
@@ -17065,11 +17218,12 @@
       <c r="L31" s="16"/>
       <c r="M31" s="20"/>
       <c r="N31" s="58"/>
-      <c r="O31" s="68" t="s">
+      <c r="O31" s="99"/>
+      <c r="P31" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>1207</v>
       </c>
@@ -17088,9 +17242,10 @@
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
-      <c r="O32" s="48"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O32" s="105"/>
+      <c r="P32" s="48"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>1198</v>
       </c>
@@ -17109,11 +17264,12 @@
       <c r="L33" s="16"/>
       <c r="M33" s="20"/>
       <c r="N33" s="58"/>
-      <c r="O33" s="68" t="s">
+      <c r="O33" s="99"/>
+      <c r="P33" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>1199</v>
       </c>
@@ -17142,11 +17298,12 @@
       <c r="L34" s="16"/>
       <c r="M34" s="20"/>
       <c r="N34" s="58"/>
-      <c r="O34" s="68" t="s">
+      <c r="O34" s="99"/>
+      <c r="P34" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>1200</v>
       </c>
@@ -17165,9 +17322,10 @@
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
       <c r="L35" s="45"/>
-      <c r="O35" s="48"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="105"/>
+      <c r="P35" s="48"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>1201</v>
       </c>
@@ -17188,11 +17346,12 @@
       <c r="L36" s="16"/>
       <c r="M36" s="20"/>
       <c r="N36" s="58"/>
-      <c r="O36" s="68" t="s">
+      <c r="O36" s="99"/>
+      <c r="P36" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>1202</v>
       </c>
@@ -17221,11 +17380,12 @@
       <c r="L37" s="16"/>
       <c r="M37" s="20"/>
       <c r="N37" s="58"/>
-      <c r="O37" s="68" t="s">
+      <c r="O37" s="99"/>
+      <c r="P37" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>1203</v>
       </c>
@@ -17246,8 +17406,9 @@
       <c r="L38" s="16"/>
       <c r="M38" s="20"/>
       <c r="N38" s="58"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O38" s="99"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>1204</v>
       </c>
@@ -17268,8 +17429,9 @@
       <c r="L39" s="16"/>
       <c r="M39" s="20"/>
       <c r="N39" s="58"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O39" s="99"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>1205</v>
       </c>
@@ -17290,8 +17452,9 @@
       <c r="L40" s="16"/>
       <c r="M40" s="20"/>
       <c r="N40" s="58"/>
-    </row>
-    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O40" s="99"/>
+    </row>
+    <row r="41" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>355</v>
       </c>
@@ -17310,8 +17473,9 @@
       <c r="L41" s="16"/>
       <c r="M41" s="20"/>
       <c r="N41" s="58"/>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O41" s="99"/>
+    </row>
+    <row r="42" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>361</v>
       </c>
@@ -17340,11 +17504,12 @@
       <c r="L42" s="16"/>
       <c r="M42" s="20"/>
       <c r="N42" s="58"/>
-      <c r="O42" s="68" t="s">
+      <c r="O42" s="99"/>
+      <c r="P42" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>362</v>
       </c>
@@ -17371,11 +17536,12 @@
       <c r="L43" s="16"/>
       <c r="M43" s="20"/>
       <c r="N43" s="58"/>
-      <c r="O43" s="68" t="s">
+      <c r="O43" s="99"/>
+      <c r="P43" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>832</v>
       </c>
@@ -17394,9 +17560,10 @@
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
-      <c r="O44" s="48"/>
-    </row>
-    <row r="45" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O44" s="105"/>
+      <c r="P44" s="48"/>
+    </row>
+    <row r="45" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>357</v>
       </c>
@@ -17417,8 +17584,9 @@
       <c r="L45" s="16"/>
       <c r="M45" s="20"/>
       <c r="N45" s="58"/>
-    </row>
-    <row r="46" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O45" s="99"/>
+    </row>
+    <row r="46" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>833</v>
       </c>
@@ -17437,9 +17605,10 @@
       <c r="J46" s="45"/>
       <c r="K46" s="45"/>
       <c r="L46" s="45"/>
-      <c r="O46" s="48"/>
-    </row>
-    <row r="47" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O46" s="105"/>
+      <c r="P46" s="48"/>
+    </row>
+    <row r="47" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>834</v>
       </c>
@@ -17460,8 +17629,9 @@
       <c r="L47" s="16"/>
       <c r="M47" s="20"/>
       <c r="N47" s="58"/>
-    </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O47" s="99"/>
+    </row>
+    <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="66" t="s">
         <v>360</v>
       </c>
@@ -17482,8 +17652,9 @@
       <c r="L48" s="16"/>
       <c r="M48" s="20"/>
       <c r="N48" s="58"/>
-    </row>
-    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O48" s="99"/>
+    </row>
+    <row r="49" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="66" t="s">
         <v>359</v>
       </c>
@@ -17504,11 +17675,12 @@
       <c r="L49" s="16"/>
       <c r="M49" s="20"/>
       <c r="N49" s="58"/>
-      <c r="O49" s="68" t="s">
+      <c r="O49" s="99"/>
+      <c r="P49" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="66" t="s">
         <v>356</v>
       </c>
@@ -17529,8 +17701,9 @@
       <c r="L50" s="16"/>
       <c r="M50" s="20"/>
       <c r="N50" s="58"/>
-    </row>
-    <row r="51" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O50" s="99"/>
+    </row>
+    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="66" t="s">
         <v>358</v>
       </c>
@@ -17551,11 +17724,12 @@
       <c r="L51" s="16"/>
       <c r="M51" s="20"/>
       <c r="N51" s="58"/>
-      <c r="O51" s="68" t="s">
+      <c r="O51" s="99"/>
+      <c r="P51" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="66" t="s">
         <v>363</v>
       </c>
@@ -17576,11 +17750,12 @@
       <c r="L52" s="16"/>
       <c r="M52" s="20"/>
       <c r="N52" s="58"/>
-      <c r="O52" s="68" t="s">
+      <c r="O52" s="99"/>
+      <c r="P52" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>835</v>
       </c>
@@ -17599,8 +17774,9 @@
       <c r="L53" s="16"/>
       <c r="M53" s="20"/>
       <c r="N53" s="58"/>
-    </row>
-    <row r="54" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O53" s="99"/>
+    </row>
+    <row r="54" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>837</v>
       </c>
@@ -17635,11 +17811,12 @@
       <c r="L54" s="16"/>
       <c r="M54" s="20"/>
       <c r="N54" s="58"/>
-      <c r="O54" s="68" t="s">
+      <c r="O54" s="99"/>
+      <c r="P54" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>845</v>
       </c>
@@ -17660,11 +17837,12 @@
       <c r="L55" s="16"/>
       <c r="M55" s="20"/>
       <c r="N55" s="58"/>
-      <c r="O55" s="68" t="s">
+      <c r="O55" s="99"/>
+      <c r="P55" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>846</v>
       </c>
@@ -17685,8 +17863,9 @@
       <c r="L56" s="16"/>
       <c r="M56" s="20"/>
       <c r="N56" s="58"/>
-    </row>
-    <row r="57" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O56" s="99"/>
+    </row>
+    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>847</v>
       </c>
@@ -17707,11 +17886,12 @@
       <c r="L57" s="16"/>
       <c r="M57" s="20"/>
       <c r="N57" s="58"/>
-      <c r="O57" s="68" t="s">
+      <c r="O57" s="99"/>
+      <c r="P57" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>848</v>
       </c>
@@ -17738,8 +17918,9 @@
       <c r="L58" s="16"/>
       <c r="M58" s="20"/>
       <c r="N58" s="58"/>
-    </row>
-    <row r="59" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O58" s="99"/>
+    </row>
+    <row r="59" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>849</v>
       </c>
@@ -17758,9 +17939,10 @@
       <c r="J59" s="45"/>
       <c r="K59" s="45"/>
       <c r="L59" s="45"/>
-      <c r="O59" s="48"/>
-    </row>
-    <row r="60" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="105"/>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>850</v>
       </c>
@@ -17779,9 +17961,10 @@
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
       <c r="L60" s="45"/>
-      <c r="O60" s="48"/>
-    </row>
-    <row r="61" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O60" s="105"/>
+      <c r="P60" s="48"/>
+    </row>
+    <row r="61" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>851</v>
       </c>
@@ -17806,11 +17989,12 @@
       <c r="L61" s="16"/>
       <c r="M61" s="20"/>
       <c r="N61" s="58"/>
-      <c r="O61" s="68" t="s">
+      <c r="O61" s="99"/>
+      <c r="P61" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>853</v>
       </c>
@@ -17831,11 +18015,12 @@
       <c r="L62" s="16"/>
       <c r="M62" s="20"/>
       <c r="N62" s="58"/>
-      <c r="O62" s="68" t="s">
+      <c r="O62" s="99"/>
+      <c r="P62" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>860</v>
       </c>
@@ -17854,9 +18039,10 @@
       <c r="J63" s="45"/>
       <c r="K63" s="45"/>
       <c r="L63" s="45"/>
-      <c r="O63" s="48"/>
-    </row>
-    <row r="64" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O63" s="105"/>
+      <c r="P63" s="48"/>
+    </row>
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>861</v>
       </c>
@@ -17877,11 +18063,12 @@
       <c r="L64" s="16"/>
       <c r="M64" s="20"/>
       <c r="N64" s="58"/>
-      <c r="O64" s="68" t="s">
+      <c r="O64" s="99"/>
+      <c r="P64" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>862</v>
       </c>
@@ -17908,11 +18095,12 @@
       <c r="L65" s="16"/>
       <c r="M65" s="20"/>
       <c r="N65" s="58"/>
-      <c r="O65" s="68" t="s">
+      <c r="O65" s="99"/>
+      <c r="P65" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>863</v>
       </c>
@@ -17943,11 +18131,12 @@
       <c r="L66" s="16"/>
       <c r="M66" s="20"/>
       <c r="N66" s="58"/>
-      <c r="O66" s="68" t="s">
+      <c r="O66" s="99"/>
+      <c r="P66" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>864</v>
       </c>
@@ -17974,11 +18163,12 @@
       <c r="L67" s="16"/>
       <c r="M67" s="20"/>
       <c r="N67" s="58"/>
-      <c r="O67" s="68" t="s">
+      <c r="O67" s="99"/>
+      <c r="P67" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>865</v>
       </c>
@@ -18005,11 +18195,12 @@
       <c r="L68" s="16"/>
       <c r="M68" s="20"/>
       <c r="N68" s="58"/>
-      <c r="O68" s="68" t="s">
+      <c r="O68" s="99"/>
+      <c r="P68" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>867</v>
       </c>
@@ -18036,11 +18227,12 @@
       <c r="L69" s="16"/>
       <c r="M69" s="20"/>
       <c r="N69" s="58"/>
-      <c r="O69" s="68" t="s">
+      <c r="O69" s="99"/>
+      <c r="P69" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>869</v>
       </c>
@@ -18061,8 +18253,9 @@
       <c r="L70" s="16"/>
       <c r="M70" s="20"/>
       <c r="N70" s="58"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O70" s="99"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>876</v>
       </c>
@@ -18083,8 +18276,9 @@
       <c r="L71" s="16"/>
       <c r="M71" s="20"/>
       <c r="N71" s="58"/>
-    </row>
-    <row r="72" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O71" s="99"/>
+    </row>
+    <row r="72" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>877</v>
       </c>
@@ -18105,11 +18299,12 @@
       <c r="L72" s="16"/>
       <c r="M72" s="20"/>
       <c r="N72" s="58"/>
-      <c r="O72" s="68" t="s">
+      <c r="O72" s="99"/>
+      <c r="P72" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>878</v>
       </c>
@@ -18130,11 +18325,12 @@
       <c r="L73" s="16"/>
       <c r="M73" s="20"/>
       <c r="N73" s="58"/>
-      <c r="O73" s="68" t="s">
+      <c r="O73" s="99"/>
+      <c r="P73" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>879</v>
       </c>
@@ -18155,8 +18351,9 @@
       <c r="L74" s="16"/>
       <c r="M74" s="20"/>
       <c r="N74" s="58"/>
-    </row>
-    <row r="75" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O74" s="99"/>
+    </row>
+    <row r="75" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="45" t="s">
         <v>880</v>
       </c>
@@ -18175,9 +18372,10 @@
       <c r="J75" s="45"/>
       <c r="K75" s="45"/>
       <c r="L75" s="45"/>
-      <c r="O75" s="48"/>
-    </row>
-    <row r="76" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O75" s="105"/>
+      <c r="P75" s="48"/>
+    </row>
+    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>364</v>
       </c>
@@ -18196,8 +18394,9 @@
       <c r="L76" s="16"/>
       <c r="M76" s="20"/>
       <c r="N76" s="58"/>
-    </row>
-    <row r="77" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O76" s="99"/>
+    </row>
+    <row r="77" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>365</v>
       </c>
@@ -18218,8 +18417,9 @@
       <c r="L77" s="16"/>
       <c r="M77" s="20"/>
       <c r="N77" s="58"/>
-    </row>
-    <row r="78" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O77" s="99"/>
+    </row>
+    <row r="78" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>366</v>
       </c>
@@ -18240,11 +18440,12 @@
       <c r="L78" s="16"/>
       <c r="M78" s="20"/>
       <c r="N78" s="58"/>
-      <c r="O78" s="68" t="s">
+      <c r="O78" s="99"/>
+      <c r="P78" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
         <v>881</v>
       </c>
@@ -18263,9 +18464,10 @@
       <c r="J79" s="45"/>
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
-      <c r="O79" s="48"/>
-    </row>
-    <row r="80" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O79" s="105"/>
+      <c r="P79" s="48"/>
+    </row>
+    <row r="80" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>882</v>
       </c>
@@ -18284,9 +18486,10 @@
       <c r="J80" s="45"/>
       <c r="K80" s="45"/>
       <c r="L80" s="45"/>
-      <c r="O80" s="48"/>
-    </row>
-    <row r="81" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O80" s="105"/>
+      <c r="P80" s="48"/>
+    </row>
+    <row r="81" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>883</v>
       </c>
@@ -18303,9 +18506,10 @@
       <c r="J81" s="45"/>
       <c r="K81" s="45"/>
       <c r="L81" s="45"/>
-      <c r="O81" s="48"/>
-    </row>
-    <row r="82" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O81" s="105"/>
+      <c r="P81" s="48"/>
+    </row>
+    <row r="82" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>885</v>
       </c>
@@ -18324,9 +18528,10 @@
       <c r="J82" s="45"/>
       <c r="K82" s="45"/>
       <c r="L82" s="45"/>
-      <c r="O82" s="48"/>
-    </row>
-    <row r="83" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O82" s="105"/>
+      <c r="P82" s="48"/>
+    </row>
+    <row r="83" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="45" t="s">
         <v>890</v>
       </c>
@@ -18345,9 +18550,10 @@
       <c r="J83" s="45"/>
       <c r="K83" s="45"/>
       <c r="L83" s="45"/>
-      <c r="O83" s="48"/>
-    </row>
-    <row r="84" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O83" s="105"/>
+      <c r="P83" s="48"/>
+    </row>
+    <row r="84" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="45" t="s">
         <v>891</v>
       </c>
@@ -18366,9 +18572,10 @@
       <c r="J84" s="45"/>
       <c r="K84" s="45"/>
       <c r="L84" s="45"/>
-      <c r="O84" s="48"/>
-    </row>
-    <row r="85" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O84" s="105"/>
+      <c r="P84" s="48"/>
+    </row>
+    <row r="85" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
         <v>892</v>
       </c>
@@ -18387,9 +18594,10 @@
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
-      <c r="O85" s="48"/>
-    </row>
-    <row r="86" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O85" s="105"/>
+      <c r="P85" s="48"/>
+    </row>
+    <row r="86" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>893</v>
       </c>
@@ -18418,11 +18626,12 @@
       <c r="L86" s="16"/>
       <c r="M86" s="20"/>
       <c r="N86" s="58"/>
-      <c r="O86" s="68" t="s">
+      <c r="O86" s="99"/>
+      <c r="P86" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="45" t="s">
         <v>895</v>
       </c>
@@ -18439,9 +18648,10 @@
       <c r="J87" s="45"/>
       <c r="K87" s="45"/>
       <c r="L87" s="45"/>
-      <c r="O87" s="48"/>
-    </row>
-    <row r="88" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O87" s="105"/>
+      <c r="P87" s="48"/>
+    </row>
+    <row r="88" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="45" t="s">
         <v>897</v>
       </c>
@@ -18460,9 +18670,10 @@
       <c r="J88" s="45"/>
       <c r="K88" s="45"/>
       <c r="L88" s="45"/>
-      <c r="O88" s="48"/>
-    </row>
-    <row r="89" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O88" s="105"/>
+      <c r="P88" s="48"/>
+    </row>
+    <row r="89" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>899</v>
       </c>
@@ -18481,9 +18692,10 @@
       <c r="J89" s="45"/>
       <c r="K89" s="45"/>
       <c r="L89" s="45"/>
-      <c r="O89" s="48"/>
-    </row>
-    <row r="90" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O89" s="105"/>
+      <c r="P89" s="48"/>
+    </row>
+    <row r="90" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="45" t="s">
         <v>901</v>
       </c>
@@ -18500,9 +18712,10 @@
       <c r="J90" s="45"/>
       <c r="K90" s="45"/>
       <c r="L90" s="45"/>
-      <c r="O90" s="48"/>
-    </row>
-    <row r="91" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O90" s="105"/>
+      <c r="P90" s="48"/>
+    </row>
+    <row r="91" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="45" t="s">
         <v>903</v>
       </c>
@@ -18521,9 +18734,10 @@
       <c r="J91" s="45"/>
       <c r="K91" s="45"/>
       <c r="L91" s="45"/>
-      <c r="O91" s="48"/>
-    </row>
-    <row r="92" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="O91" s="105"/>
+      <c r="P91" s="48"/>
+    </row>
+    <row r="92" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>905</v>
       </c>
@@ -18556,11 +18770,12 @@
       <c r="L92" s="59"/>
       <c r="M92" s="58"/>
       <c r="N92" s="58"/>
-      <c r="O92" s="68" t="s">
+      <c r="O92" s="99"/>
+      <c r="P92" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>907</v>
       </c>
@@ -18589,8 +18804,9 @@
       <c r="L93" s="16"/>
       <c r="M93" s="20"/>
       <c r="N93" s="58"/>
-    </row>
-    <row r="94" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O93" s="99"/>
+    </row>
+    <row r="94" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>912</v>
       </c>
@@ -18611,8 +18827,9 @@
       <c r="L94" s="16"/>
       <c r="M94" s="20"/>
       <c r="N94" s="58"/>
-    </row>
-    <row r="95" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O94" s="99"/>
+    </row>
+    <row r="95" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>913</v>
       </c>
@@ -18633,8 +18850,9 @@
       <c r="L95" s="16"/>
       <c r="M95" s="20"/>
       <c r="N95" s="58"/>
-    </row>
-    <row r="96" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O95" s="99"/>
+    </row>
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>914</v>
       </c>
@@ -18655,11 +18873,12 @@
       <c r="L96" s="16"/>
       <c r="M96" s="20"/>
       <c r="N96" s="58"/>
-      <c r="O96" s="68" t="s">
+      <c r="O96" s="99"/>
+      <c r="P96" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>915</v>
       </c>
@@ -18690,8 +18909,9 @@
       <c r="L97" s="16"/>
       <c r="M97" s="20"/>
       <c r="N97" s="58"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O97" s="99"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>120</v>
       </c>
@@ -18710,8 +18930,9 @@
       <c r="L98" s="16"/>
       <c r="M98" s="20"/>
       <c r="N98" s="58"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O98" s="99"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
         <v>146</v>
       </c>
@@ -18732,8 +18953,9 @@
       <c r="L99" s="16"/>
       <c r="M99" s="20"/>
       <c r="N99" s="58"/>
-    </row>
-    <row r="100" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O99" s="99"/>
+    </row>
+    <row r="100" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="16" t="s">
         <v>372</v>
       </c>
@@ -18758,8 +18980,9 @@
       <c r="L100" s="16"/>
       <c r="M100" s="20"/>
       <c r="N100" s="58"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O100" s="99"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="s">
         <v>121</v>
       </c>
@@ -18780,8 +19003,9 @@
       <c r="L101" s="16"/>
       <c r="M101" s="20"/>
       <c r="N101" s="58"/>
-    </row>
-    <row r="102" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O101" s="99"/>
+    </row>
+    <row r="102" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
         <v>918</v>
       </c>
@@ -18800,9 +19024,10 @@
       <c r="J102" s="45"/>
       <c r="K102" s="45"/>
       <c r="L102" s="45"/>
-      <c r="O102" s="48"/>
-    </row>
-    <row r="103" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O102" s="105"/>
+      <c r="P102" s="48"/>
+    </row>
+    <row r="103" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
         <v>919</v>
       </c>
@@ -18821,9 +19046,10 @@
       <c r="J103" s="45"/>
       <c r="K103" s="45"/>
       <c r="L103" s="45"/>
-      <c r="O103" s="48"/>
-    </row>
-    <row r="104" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O103" s="105"/>
+      <c r="P103" s="48"/>
+    </row>
+    <row r="104" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>920</v>
       </c>
@@ -18854,11 +19080,12 @@
       <c r="L104" s="16"/>
       <c r="M104" s="20"/>
       <c r="N104" s="58"/>
-      <c r="O104" s="68" t="s">
+      <c r="O104" s="99"/>
+      <c r="P104" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>933</v>
       </c>
@@ -18879,11 +19106,12 @@
       <c r="L105" s="16"/>
       <c r="M105" s="20"/>
       <c r="N105" s="58"/>
-      <c r="O105" s="68" t="s">
+      <c r="O105" s="99"/>
+      <c r="P105" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>934</v>
       </c>
@@ -18904,8 +19132,9 @@
       <c r="L106" s="16"/>
       <c r="M106" s="20"/>
       <c r="N106" s="58"/>
-    </row>
-    <row r="107" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O106" s="99"/>
+    </row>
+    <row r="107" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
         <v>935</v>
       </c>
@@ -18926,8 +19155,9 @@
       <c r="L107" s="16"/>
       <c r="M107" s="20"/>
       <c r="N107" s="58"/>
-    </row>
-    <row r="108" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O107" s="99"/>
+    </row>
+    <row r="108" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>936</v>
       </c>
@@ -18948,11 +19178,12 @@
       <c r="L108" s="16"/>
       <c r="M108" s="20"/>
       <c r="N108" s="58"/>
-      <c r="O108" s="68" t="s">
+      <c r="O108" s="99"/>
+      <c r="P108" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>937</v>
       </c>
@@ -18973,8 +19204,9 @@
       <c r="L109" s="16"/>
       <c r="M109" s="20"/>
       <c r="N109" s="58"/>
-    </row>
-    <row r="110" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O109" s="99"/>
+    </row>
+    <row r="110" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="45" t="s">
         <v>938</v>
       </c>
@@ -18993,9 +19225,10 @@
       <c r="J110" s="45"/>
       <c r="K110" s="45"/>
       <c r="L110" s="45"/>
-      <c r="O110" s="48"/>
-    </row>
-    <row r="111" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O110" s="105"/>
+      <c r="P110" s="48"/>
+    </row>
+    <row r="111" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="45" t="s">
         <v>939</v>
       </c>
@@ -19014,9 +19247,10 @@
       <c r="J111" s="45"/>
       <c r="K111" s="45"/>
       <c r="L111" s="45"/>
-      <c r="O111" s="48"/>
-    </row>
-    <row r="112" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O111" s="105"/>
+      <c r="P111" s="48"/>
+    </row>
+    <row r="112" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
         <v>940</v>
       </c>
@@ -19037,8 +19271,9 @@
       <c r="L112" s="16"/>
       <c r="M112" s="20"/>
       <c r="N112" s="58"/>
-    </row>
-    <row r="113" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O112" s="99"/>
+    </row>
+    <row r="113" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>941</v>
       </c>
@@ -19065,11 +19300,12 @@
       <c r="L113" s="16"/>
       <c r="M113" s="20"/>
       <c r="N113" s="58"/>
-      <c r="O113" s="68" t="s">
+      <c r="O113" s="99"/>
+      <c r="P113" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>942</v>
       </c>
@@ -19094,8 +19330,9 @@
       <c r="L114" s="16"/>
       <c r="M114" s="20"/>
       <c r="N114" s="58"/>
-    </row>
-    <row r="115" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O114" s="99"/>
+    </row>
+    <row r="115" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="45" t="s">
         <v>943</v>
       </c>
@@ -19114,9 +19351,10 @@
       <c r="J115" s="45"/>
       <c r="K115" s="45"/>
       <c r="L115" s="45"/>
-      <c r="O115" s="48"/>
-    </row>
-    <row r="116" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O115" s="105"/>
+      <c r="P115" s="48"/>
+    </row>
+    <row r="116" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>944</v>
       </c>
@@ -19143,11 +19381,12 @@
       <c r="L116" s="16"/>
       <c r="M116" s="20"/>
       <c r="N116" s="58"/>
-      <c r="O116" s="68" t="s">
+      <c r="O116" s="99"/>
+      <c r="P116" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>946</v>
       </c>
@@ -19180,11 +19419,12 @@
       <c r="L117" s="16"/>
       <c r="M117" s="20"/>
       <c r="N117" s="58"/>
-      <c r="O117" s="68" t="s">
+      <c r="O117" s="99"/>
+      <c r="P117" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>287</v>
       </c>
@@ -19207,11 +19447,12 @@
       <c r="L118" s="16"/>
       <c r="M118" s="20"/>
       <c r="N118" s="58"/>
-      <c r="O118" s="68" t="s">
+      <c r="O118" s="99"/>
+      <c r="P118" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>289</v>
       </c>
@@ -19234,11 +19475,12 @@
       </c>
       <c r="M119" s="20"/>
       <c r="N119" s="58"/>
-      <c r="O119" s="68" t="s">
+      <c r="O119" s="99"/>
+      <c r="P119" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
         <v>959</v>
       </c>
@@ -19273,11 +19515,12 @@
       <c r="L120" s="16"/>
       <c r="M120" s="20"/>
       <c r="N120" s="58"/>
-      <c r="O120" s="68" t="s">
+      <c r="O120" s="99"/>
+      <c r="P120" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>960</v>
       </c>
@@ -19302,11 +19545,12 @@
       <c r="L121" s="16"/>
       <c r="M121" s="20"/>
       <c r="N121" s="58"/>
-      <c r="O121" s="68" t="s">
+      <c r="O121" s="99"/>
+      <c r="P121" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>961</v>
       </c>
@@ -19333,11 +19577,12 @@
       <c r="L122" s="16"/>
       <c r="M122" s="40"/>
       <c r="N122" s="40"/>
-      <c r="O122" s="68" t="s">
+      <c r="O122" s="104"/>
+      <c r="P122" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="s">
         <v>962</v>
       </c>
@@ -19364,11 +19609,12 @@
       <c r="L123" s="16"/>
       <c r="M123" s="40"/>
       <c r="N123" s="40"/>
-      <c r="O123" s="68" t="s">
+      <c r="O123" s="104"/>
+      <c r="P123" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="16" t="s">
         <v>963</v>
       </c>
@@ -19389,11 +19635,12 @@
       <c r="L124" s="24"/>
       <c r="M124" s="20"/>
       <c r="N124" s="58"/>
-      <c r="O124" s="68" t="s">
+      <c r="O124" s="99"/>
+      <c r="P124" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
         <v>964</v>
       </c>
@@ -19414,11 +19661,12 @@
       <c r="L125" s="24"/>
       <c r="M125" s="20"/>
       <c r="N125" s="58"/>
-      <c r="O125" s="68" t="s">
+      <c r="O125" s="99"/>
+      <c r="P125" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>965</v>
       </c>
@@ -19445,11 +19693,12 @@
       <c r="L126" s="24"/>
       <c r="M126" s="20"/>
       <c r="N126" s="58"/>
-      <c r="O126" s="68" t="s">
+      <c r="O126" s="99"/>
+      <c r="P126" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
         <v>966</v>
       </c>
@@ -19478,11 +19727,12 @@
       <c r="L127" s="24"/>
       <c r="M127" s="20"/>
       <c r="N127" s="58"/>
-      <c r="O127" s="68" t="s">
+      <c r="O127" s="99"/>
+      <c r="P127" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="16" t="s">
         <v>967</v>
       </c>
@@ -19511,11 +19761,12 @@
       <c r="L128" s="24"/>
       <c r="M128" s="20"/>
       <c r="N128" s="58"/>
-      <c r="O128" s="68" t="s">
+      <c r="O128" s="99"/>
+      <c r="P128" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>968</v>
       </c>
@@ -19536,8 +19787,9 @@
       <c r="L129" s="24"/>
       <c r="M129" s="20"/>
       <c r="N129" s="58"/>
-    </row>
-    <row r="130" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O129" s="99"/>
+    </row>
+    <row r="130" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>969</v>
       </c>
@@ -19556,8 +19808,9 @@
       <c r="L130" s="24"/>
       <c r="M130" s="20"/>
       <c r="N130" s="58"/>
-    </row>
-    <row r="131" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O130" s="99"/>
+    </row>
+    <row r="131" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="s">
         <v>971</v>
       </c>
@@ -19578,11 +19831,12 @@
       <c r="L131" s="16"/>
       <c r="M131" s="37"/>
       <c r="N131" s="37"/>
-      <c r="O131" s="68" t="s">
+      <c r="O131" s="107"/>
+      <c r="P131" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
         <v>973</v>
       </c>
@@ -19601,8 +19855,9 @@
       <c r="L132" s="16"/>
       <c r="M132" s="36"/>
       <c r="N132" s="36"/>
-    </row>
-    <row r="133" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O132" s="102"/>
+    </row>
+    <row r="133" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="45" t="s">
         <v>975</v>
       </c>
@@ -19623,9 +19878,10 @@
       <c r="L133" s="45"/>
       <c r="M133" s="46"/>
       <c r="N133" s="46"/>
-      <c r="O133" s="48"/>
-    </row>
-    <row r="134" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O133" s="94"/>
+      <c r="P133" s="48"/>
+    </row>
+    <row r="134" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
         <v>982</v>
       </c>
@@ -19650,8 +19906,9 @@
       <c r="L134" s="16"/>
       <c r="M134" s="20"/>
       <c r="N134" s="58"/>
-    </row>
-    <row r="135" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O134" s="99"/>
+    </row>
+    <row r="135" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
         <v>983</v>
       </c>
@@ -19686,8 +19943,9 @@
       <c r="L135" s="16"/>
       <c r="M135" s="20"/>
       <c r="N135" s="58"/>
-    </row>
-    <row r="136" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O135" s="99"/>
+    </row>
+    <row r="136" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
         <v>984</v>
       </c>
@@ -19714,11 +19972,12 @@
       <c r="L136" s="16"/>
       <c r="M136" s="20"/>
       <c r="N136" s="58"/>
-      <c r="O136" s="68" t="s">
+      <c r="O136" s="99"/>
+      <c r="P136" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
         <v>985</v>
       </c>
@@ -19739,8 +19998,9 @@
       <c r="L137" s="24"/>
       <c r="M137" s="20"/>
       <c r="N137" s="58"/>
-    </row>
-    <row r="138" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O137" s="99"/>
+    </row>
+    <row r="138" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
         <v>986</v>
       </c>
@@ -19761,8 +20021,9 @@
       <c r="L138" s="16"/>
       <c r="M138" s="20"/>
       <c r="N138" s="58"/>
-    </row>
-    <row r="139" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O138" s="99"/>
+    </row>
+    <row r="139" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
         <v>987</v>
       </c>
@@ -19781,11 +20042,12 @@
       <c r="L139" s="24"/>
       <c r="M139" s="20"/>
       <c r="N139" s="58"/>
-      <c r="O139" s="68" t="s">
+      <c r="O139" s="99"/>
+      <c r="P139" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
         <v>484</v>
       </c>
@@ -19804,8 +20066,9 @@
       <c r="L140" s="24"/>
       <c r="M140" s="20"/>
       <c r="N140" s="58"/>
-    </row>
-    <row r="141" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O140" s="99"/>
+    </row>
+    <row r="141" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
         <v>378</v>
       </c>
@@ -19826,14 +20089,17 @@
       <c r="L141" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="M141" s="36" t="s">
+      <c r="M141" s="107" t="s">
         <v>497</v>
       </c>
-      <c r="N141" s="100" t="s">
+      <c r="N141" s="90" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="O141" s="104" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>989</v>
       </c>
@@ -19856,8 +20122,9 @@
       <c r="L142" s="16"/>
       <c r="M142" s="20"/>
       <c r="N142" s="58"/>
-    </row>
-    <row r="143" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="O142" s="99"/>
+    </row>
+    <row r="143" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="s">
         <v>991</v>
       </c>
@@ -19878,11 +20145,12 @@
       <c r="L143" s="24"/>
       <c r="M143" s="20"/>
       <c r="N143" s="58"/>
-      <c r="O143" s="68" t="s">
+      <c r="O143" s="99"/>
+      <c r="P143" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="45" t="s">
         <v>993</v>
       </c>
@@ -19898,9 +20166,10 @@
       <c r="I144" s="45"/>
       <c r="J144" s="45"/>
       <c r="L144" s="48"/>
-      <c r="O144" s="48"/>
-    </row>
-    <row r="145" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O144" s="105"/>
+      <c r="P144" s="48"/>
+    </row>
+    <row r="145" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>205</v>
       </c>
@@ -19919,8 +20188,9 @@
       <c r="L145" s="24"/>
       <c r="M145" s="20"/>
       <c r="N145" s="58"/>
-    </row>
-    <row r="146" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O145" s="99"/>
+    </row>
+    <row r="146" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="45" t="s">
         <v>995</v>
       </c>
@@ -19938,9 +20208,10 @@
       <c r="I146" s="45"/>
       <c r="J146" s="45"/>
       <c r="L146" s="48"/>
-      <c r="O146" s="48"/>
-    </row>
-    <row r="147" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O146" s="105"/>
+      <c r="P146" s="48"/>
+    </row>
+    <row r="147" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
         <v>89</v>
       </c>
@@ -19961,11 +20232,12 @@
       <c r="L147" s="24"/>
       <c r="M147" s="20"/>
       <c r="N147" s="58"/>
-      <c r="O147" s="68" t="s">
+      <c r="O147" s="99"/>
+      <c r="P147" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>92</v>
       </c>
@@ -19986,11 +20258,12 @@
       <c r="L148" s="24"/>
       <c r="M148" s="20"/>
       <c r="N148" s="58"/>
-      <c r="O148" s="68" t="s">
+      <c r="O148" s="99"/>
+      <c r="P148" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="45" t="s">
         <v>998</v>
       </c>
@@ -20009,9 +20282,10 @@
       <c r="J149" s="45"/>
       <c r="K149" s="45"/>
       <c r="L149" s="48"/>
-      <c r="O149" s="48"/>
-    </row>
-    <row r="150" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O149" s="105"/>
+      <c r="P149" s="48"/>
+    </row>
+    <row r="150" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>228</v>
       </c>
@@ -20032,7 +20306,7 @@
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>231</v>
       </c>
@@ -20050,11 +20324,11 @@
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
-      <c r="O151" s="68" t="s">
+      <c r="P151" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>232</v>
       </c>
@@ -20065,7 +20339,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>234</v>
       </c>
@@ -20075,11 +20349,11 @@
       <c r="C153" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="O153" s="68" t="s">
+      <c r="P153" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="45" t="s">
         <v>236</v>
       </c>
@@ -20091,9 +20365,10 @@
       </c>
       <c r="K154" s="48"/>
       <c r="L154" s="48"/>
-      <c r="O154" s="48"/>
-    </row>
-    <row r="155" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O154" s="105"/>
+      <c r="P154" s="48"/>
+    </row>
+    <row r="155" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>762</v>
       </c>
@@ -20101,7 +20376,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>765</v>
       </c>
@@ -20111,11 +20386,11 @@
       <c r="C156" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="O156" s="68" t="s">
+      <c r="P156" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>768</v>
       </c>
@@ -20126,7 +20401,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>769</v>
       </c>
@@ -20137,7 +20412,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="45" t="s">
         <v>999</v>
       </c>
@@ -20146,9 +20421,10 @@
       </c>
       <c r="K159" s="48"/>
       <c r="L159" s="48"/>
-      <c r="O159" s="48"/>
-    </row>
-    <row r="160" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O159" s="105"/>
+      <c r="P159" s="48"/>
+    </row>
+    <row r="160" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="45" t="s">
         <v>1001</v>
       </c>
@@ -20160,9 +20436,10 @@
       </c>
       <c r="K160" s="48"/>
       <c r="L160" s="48"/>
-      <c r="O160" s="48"/>
-    </row>
-    <row r="161" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O160" s="105"/>
+      <c r="P160" s="48"/>
+    </row>
+    <row r="161" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="45" t="s">
         <v>1003</v>
       </c>
@@ -20174,27 +20451,28 @@
       </c>
       <c r="K161" s="48"/>
       <c r="L161" s="48"/>
-      <c r="O161" s="48"/>
-    </row>
-    <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O161" s="105"/>
+      <c r="P161" s="48"/>
+    </row>
+    <row r="162" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>1005</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="O162" s="68" t="s">
+      <c r="P162" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="K6:M6"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -20202,6 +20480,7 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{CDAB2D74-4B74-45B1-AC9E-72844F12AE76}"/>
     <hyperlink ref="M141" r:id="rId3" xr:uid="{25858593-F0DD-4226-A91E-5128D5F02CC4}"/>
     <hyperlink ref="N141" r:id="rId4" xr:uid="{2A87C3CC-9803-41A5-8401-421C965D0B65}"/>
+    <hyperlink ref="O141" r:id="rId5" xr:uid="{AC727440-9A10-484D-9A21-5BA05FE520AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20230,32 +20509,32 @@
     <col min="11" max="11" width="22.33203125" style="12" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="12" customWidth="1"/>
     <col min="13" max="13" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="95" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="91" customWidth="1"/>
+    <col min="14" max="14" width="15" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>1061</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="89"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="79"/>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="29" t="s">
@@ -20277,49 +20556,49 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="89"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="89"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="79"/>
     </row>
     <row r="4" spans="1:15" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="90"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="89"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -20360,11 +20639,11 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -20392,7 +20671,7 @@
       <c r="M8" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="N8" s="100"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -20414,8 +20693,8 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="91" t="s">
+      <c r="N9" s="87"/>
+      <c r="O9" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20439,8 +20718,8 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="91" t="s">
+      <c r="N10" s="87"/>
+      <c r="O10" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20464,8 +20743,8 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="91" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20489,7 +20768,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="20"/>
-      <c r="N12" s="97"/>
+      <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -20509,8 +20788,8 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="91" t="s">
+      <c r="N13" s="93"/>
+      <c r="O13" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20534,8 +20813,8 @@
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="92"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="82"/>
     </row>
     <row r="15" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
@@ -20556,8 +20835,8 @@
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="48"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="92"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="82"/>
     </row>
     <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -20579,8 +20858,8 @@
       <c r="K16" s="16"/>
       <c r="L16" s="24"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="91" t="s">
+      <c r="N16" s="87"/>
+      <c r="O16" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20604,7 +20883,7 @@
       <c r="K17" s="16"/>
       <c r="L17" s="24"/>
       <c r="M17" s="20"/>
-      <c r="N17" s="97"/>
+      <c r="N17" s="87"/>
     </row>
     <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -20626,7 +20905,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="24"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="97"/>
+      <c r="N18" s="87"/>
     </row>
     <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -20652,7 +20931,7 @@
       <c r="K19" s="16"/>
       <c r="L19" s="24"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="97"/>
+      <c r="N19" s="87"/>
     </row>
     <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
@@ -20684,7 +20963,7 @@
       <c r="M20" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="N20" s="113" t="s">
+      <c r="N20" s="103" t="s">
         <v>634</v>
       </c>
     </row>
@@ -20706,7 +20985,7 @@
       <c r="K21" s="16"/>
       <c r="L21" s="24"/>
       <c r="M21" s="20"/>
-      <c r="N21" s="97"/>
+      <c r="N21" s="87"/>
     </row>
     <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -20728,7 +21007,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="37"/>
-      <c r="N22" s="101"/>
+      <c r="N22" s="91"/>
     </row>
     <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -20750,7 +21029,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="100"/>
+      <c r="N23" s="90"/>
     </row>
     <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
@@ -20778,7 +21057,7 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="103"/>
+      <c r="N24" s="93"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
@@ -20800,8 +21079,8 @@
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="91" t="s">
+      <c r="N25" s="87"/>
+      <c r="O25" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20825,8 +21104,8 @@
       <c r="K26" s="20"/>
       <c r="L26" s="16"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="91" t="s">
+      <c r="N26" s="87"/>
+      <c r="O26" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20850,7 +21129,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="16"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="97"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -20862,10 +21141,10 @@
       <c r="C28" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="78" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -20884,8 +21163,8 @@
       <c r="K28" s="20"/>
       <c r="L28" s="24"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="91" t="s">
+      <c r="N28" s="87"/>
+      <c r="O28" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -20907,7 +21186,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="16"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="97"/>
+      <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
@@ -20935,7 +21214,7 @@
         <v>507</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="97"/>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -20957,7 +21236,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="24"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="97"/>
+      <c r="N31" s="87"/>
     </row>
     <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
@@ -20977,7 +21256,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="24"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="97"/>
+      <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
@@ -20999,7 +21278,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="16"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="97"/>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
@@ -21029,8 +21308,8 @@
       <c r="K34" s="20"/>
       <c r="L34" s="24"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="91" t="s">
+      <c r="N34" s="87"/>
+      <c r="O34" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21052,8 +21331,8 @@
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
       <c r="L35" s="48"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="92"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="82"/>
     </row>
     <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -21075,7 +21354,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="24"/>
       <c r="M36" s="20"/>
-      <c r="N36" s="97"/>
+      <c r="N36" s="87"/>
     </row>
     <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
@@ -21101,8 +21380,8 @@
       <c r="K37" s="20"/>
       <c r="L37" s="24"/>
       <c r="M37" s="20"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="91" t="s">
+      <c r="N37" s="87"/>
+      <c r="O37" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21136,8 +21415,8 @@
       <c r="K38" s="20"/>
       <c r="L38" s="24"/>
       <c r="M38" s="20"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="91" t="s">
+      <c r="N38" s="87"/>
+      <c r="O38" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21161,8 +21440,8 @@
       <c r="K39" s="16"/>
       <c r="L39" s="24"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="91" t="s">
+      <c r="N39" s="87"/>
+      <c r="O39" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21186,8 +21465,8 @@
       <c r="K40" s="16"/>
       <c r="L40" s="24"/>
       <c r="M40" s="20"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="91" t="s">
+      <c r="N40" s="87"/>
+      <c r="O40" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21209,7 +21488,7 @@
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
-      <c r="O41" s="91" t="s">
+      <c r="O41" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21231,7 +21510,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
-      <c r="O42" s="91" t="s">
+      <c r="O42" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21256,7 +21535,7 @@
       <c r="C44" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="O44" s="91" t="s">
+      <c r="O44" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21272,8 +21551,8 @@
       </c>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="92"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="82"/>
     </row>
     <row r="46" spans="1:15" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
@@ -21287,8 +21566,8 @@
       </c>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="92"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="82"/>
     </row>
     <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
@@ -21316,7 +21595,7 @@
       <c r="C49" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="O49" s="91" t="s">
+      <c r="O49" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21350,8 +21629,8 @@
       <c r="M51" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="N51" s="102"/>
-      <c r="O51" s="91" t="s">
+      <c r="N51" s="92"/>
+      <c r="O51" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21412,7 +21691,7 @@
       <c r="L56" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="O56" s="91" t="s">
+      <c r="O56" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21435,7 +21714,7 @@
       <c r="F57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="91" t="s">
+      <c r="O57" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21451,8 +21730,8 @@
       </c>
       <c r="K58" s="48"/>
       <c r="L58" s="48"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="92"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="82"/>
     </row>
     <row r="59" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
@@ -21467,7 +21746,7 @@
       <c r="L59" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="O59" s="91" t="s">
+      <c r="O59" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21483,8 +21762,8 @@
       </c>
       <c r="K60" s="48"/>
       <c r="L60" s="48"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="92"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="82"/>
     </row>
     <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
@@ -21496,7 +21775,7 @@
       <c r="C61" t="s">
         <v>612</v>
       </c>
-      <c r="O61" s="91" t="s">
+      <c r="O61" s="81" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -21512,8 +21791,8 @@
       </c>
       <c r="K62" s="48"/>
       <c r="L62" s="48"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="92"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -21564,22 +21843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="112" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>695</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
@@ -21623,27 +21902,27 @@
       <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -21684,11 +21963,11 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -22676,11 +22955,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDE1C32-283A-4725-96B6-91F7A2D2D2FD}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -22697,32 +22976,34 @@
     <col min="11" max="11" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
     <col min="13" max="13" width="25.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="113"/>
       <c r="C1" s="19"/>
       <c r="D1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="N1" s="100"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="29" t="s">
         <v>76</v>
       </c>
@@ -22742,48 +23023,53 @@
       <c r="J2" s="22"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="98"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="98"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="101"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83" t="s">
+      <c r="N5" s="98"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="87" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="77" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>34</v>
       </c>
@@ -22820,14 +23106,15 @@
       <c r="L7" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="118"/>
+      <c r="O7" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -22855,7 +23142,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>183</v>
       </c>
@@ -22873,7 +23160,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>185</v>
       </c>
@@ -22891,7 +23178,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>187</v>
       </c>
@@ -22908,7 +23195,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>1063</v>
       </c>
@@ -22927,9 +23214,12 @@
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="48"/>
-      <c r="N12" s="48"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N12" s="94" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>198</v>
       </c>
@@ -22947,11 +23237,11 @@
       <c r="I13" s="16"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="N13" s="68" t="s">
+      <c r="O13" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>96</v>
       </c>
@@ -22972,7 +23262,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -23002,11 +23292,14 @@
       <c r="M15" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N15" s="104" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O15" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>110</v>
       </c>
@@ -23038,11 +23331,12 @@
       <c r="M16" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="N16" s="68" t="s">
+      <c r="N16" s="38"/>
+      <c r="O16" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>79</v>
       </c>
@@ -23080,11 +23374,12 @@
       <c r="M17" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="35"/>
+      <c r="O17" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>1065</v>
       </c>
@@ -23103,10 +23398,13 @@
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="48"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M18" s="94" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N18" s="94"/>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>201</v>
       </c>
@@ -23126,7 +23424,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>202</v>
       </c>
@@ -23147,11 +23445,11 @@
       <c r="L20" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="N20" s="68" t="s">
+      <c r="O20" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
@@ -23176,7 +23474,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>203</v>
       </c>
@@ -23208,7 +23506,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>109</v>
       </c>
@@ -23229,7 +23527,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>205</v>
       </c>
@@ -23246,7 +23544,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>995</v>
       </c>
@@ -23265,9 +23563,10 @@
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
       <c r="L25" s="48"/>
-      <c r="N25" s="48"/>
-    </row>
-    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N25" s="105"/>
+      <c r="O25" s="48"/>
+    </row>
+    <row r="26" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>89</v>
       </c>
@@ -23290,11 +23589,11 @@
       <c r="L26" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N26" s="68" t="s">
+      <c r="O26" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>92</v>
       </c>
@@ -23317,11 +23616,11 @@
       <c r="L27" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="68" t="s">
+      <c r="O27" s="68" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>998</v>
       </c>
@@ -23340,9 +23639,10 @@
       <c r="J28" s="45"/>
       <c r="K28" s="45"/>
       <c r="L28" s="48"/>
-      <c r="N28" s="48"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="105"/>
+      <c r="O28" s="48"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -23355,7 +23655,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -23368,7 +23668,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -23381,7 +23681,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -23421,7 +23721,8 @@
       <c r="K34" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="A6:C6"/>
@@ -23435,6 +23736,9 @@
     <hyperlink ref="M17" r:id="rId3" xr:uid="{4142FFB6-C96D-4B66-9967-9CD8564FCFB7}"/>
     <hyperlink ref="M15" r:id="rId4" xr:uid="{71BACD62-F78F-4D6C-AA55-7689DBDA2F52}"/>
     <hyperlink ref="M16" r:id="rId5" xr:uid="{AAB68A29-7D80-4D0F-83A0-62330482EB49}"/>
+    <hyperlink ref="M18" r:id="rId6" xr:uid="{BD1E2BA5-8D74-4800-9495-F0669A20E4A4}"/>
+    <hyperlink ref="N15" r:id="rId7" xr:uid="{138146A4-EE05-47BE-80A2-66CD7CC5A516}"/>
+    <hyperlink ref="N12" r:id="rId8" xr:uid="{A350000C-CCD9-4317-95EE-7273B519B153}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
